--- a/DSA LogBook.xlsx
+++ b/DSA LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshi\DSA_Restart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29135954-7D38-4513-8619-0837AA57A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47584D07-C76D-414A-BEE9-FD99E4565721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EBF366D-E6C4-46CB-805E-4E078FCDBBBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Leetcode problems</t>
   </si>
@@ -50,7 +50,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>null</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2D Arrays</t>
+  </si>
+  <si>
+    <t>1-spiral matrix</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>90 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
   </si>
 </sst>
 </file>
@@ -435,7 +450,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +471,9 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -470,14 +487,38 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
+      <c r="A3" s="2">
+        <v>46067</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
+      <c r="A4" s="2">
+        <v>46068</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>

--- a/DSA LogBook.xlsx
+++ b/DSA LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshi\DSA_Restart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47584D07-C76D-414A-BEE9-FD99E4565721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7805DD3D-94C6-4976-8A21-05DA0642DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EBF366D-E6C4-46CB-805E-4E078FCDBBBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Leetcode problems</t>
   </si>
@@ -56,9 +56,6 @@
     <t>2D Arrays</t>
   </si>
   <si>
-    <t>1-spiral matrix</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -66,6 +63,24 @@
   </si>
   <si>
     <t>0 mins</t>
+  </si>
+  <si>
+    <t>140 mins</t>
+  </si>
+  <si>
+    <t>spiral matrix</t>
+  </si>
+  <si>
+    <t>diagonal sum</t>
+  </si>
+  <si>
+    <t>search in Sorted Row matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> search in total sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> matrix transpose</t>
   </si>
 </sst>
 </file>
@@ -109,10 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,15 +472,17 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -472,86 +496,106 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>46066</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>46067</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>46067</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>46068</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>46069</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA LogBook.xlsx
+++ b/DSA LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshi\DSA_Restart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7805DD3D-94C6-4976-8A21-05DA0642DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7A627-BC51-44CE-BE21-D02B27F546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EBF366D-E6C4-46CB-805E-4E078FCDBBBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Leetcode problems</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t xml:space="preserve"> matrix transpose</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>120 mins</t>
+  </si>
+  <si>
+    <t>75 mns</t>
+  </si>
+  <si>
+    <t>Bit-Manipulation (Concepts)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +484,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,10 +592,32 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
+      <c r="A9" s="3">
+        <v>46070</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>46071</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="3"/>

--- a/DSA LogBook.xlsx
+++ b/DSA LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akshi\DSA_Restart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7A627-BC51-44CE-BE21-D02B27F546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727AF550-33D8-4309-A06A-6A211FEC7192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EBF366D-E6C4-46CB-805E-4E078FCDBBBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Leetcode problems</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Bit-Manipulation (Concepts)</t>
+  </si>
+  <si>
+    <t>Bit Manipulation Questions</t>
+  </si>
+  <si>
+    <t>100 mins</t>
+  </si>
+  <si>
+    <t>Compled bit-manipulation and started OOP concepts</t>
+  </si>
+  <si>
+    <t>count bits - 338</t>
+  </si>
+  <si>
+    <t>150-180 mins</t>
   </si>
 </sst>
 </file>
@@ -484,7 +499,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,11 +634,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>46072</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>46073</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="3"/>
